--- a/data/naver_data.xlsx
+++ b/data/naver_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.103.45589"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>서울</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>전남</t>
+  </si>
+  <si>
+    <t>울릉</t>
+  </si>
+  <si>
+    <t>백령</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -463,7 +468,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -472,7 +476,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -481,7 +484,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -496,7 +498,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -511,7 +512,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -526,7 +526,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -535,7 +534,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -546,7 +544,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1057,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A7" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1329,6 +1326,28 @@
         <v>126.977386238862</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0">
+        <v>37.4899660054861</v>
+      </c>
+      <c r="C25" s="0">
+        <v>130.93944212844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="0">
+        <v>37.9621401000847</v>
+      </c>
+      <c r="C26" s="0">
+        <v>124.657579803005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/data/naver_data.xlsx
+++ b/data/naver_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.103.45589"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1056,11 +1056,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="3" width="12.63000011" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="0" t="s">
@@ -1136,7 +1139,7 @@
         <v>36.3806654031377</v>
       </c>
       <c r="C7" s="0">
-        <v>127.41984913426</v>
+        <v>127.61984913426</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1144,10 +1147,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="0">
-        <v>36.6267556309948</v>
+        <v>36.9267556309948</v>
       </c>
       <c r="C8" s="0">
-        <v>127.496515899621</v>
+        <v>127.516515899621</v>
       </c>
     </row>
     <row r="9" spans="1:3">
